--- a/zibs2024/mappable/Nl.zorg.FunctionalOrMentalStatus-v4.0.1(2024EN).xlsx
+++ b/zibs2024/mappable/Nl.zorg.FunctionalOrMentalStatus-v4.0.1(2024EN).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/zibs2024/mappable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD310D967235A2A115950A07666D9E2AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E456D4A-BA84-4F7C-9093-C3AB30D8C4D3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD310D967235A2A115950A07666D9E2AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9A59BA-D88D-4655-8907-240DDB73FC3B}"/>
   <bookViews>
-    <workbookView xWindow="58650" yWindow="-12975" windowWidth="20415" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="225" windowWidth="22875" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>Medical aid the patient has or will receive to reduce the impact of the disability or disorder.</t>
   </si>
   <si>
-    <t>FunctionalOrMentalStatus.MedicalDevice:::MedicalDevice</t>
+    <t>FunctionalOrMentalStatus.MedicalDevice::MedicalDevice</t>
   </si>
 </sst>
 </file>
@@ -541,12 +541,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="108.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -621,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -647,7 +647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -673,7 +673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -702,7 +702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
